--- a/biology/Médecine/Ataxie/Ataxie.xlsx
+++ b/biology/Médecine/Ataxie/Ataxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, l'ataxie (du grec ataxiā, signifiant « désordre ») ou danse des tendons est une maladie neuromusculaire qui consiste en un manque de coordination fine des mouvements volontaires. Elle est liée à une atteinte du système nerveux. Le trouble de la coordination est partiellement corrigé par le contrôle visuel.
 Le cervelet est le centre de la coordination fine des mouvements des muscles, tandis que l'information qui en émerge est véhiculée jusqu'aux muscles par la moelle épinière et les nerfs périphériques. Pour cette raison, un trouble soit dans la moelle épinière soit dans les nerfs périphériques peut causer une ataxie.
-L'ataxie se manifeste principalement par des troubles de la marche, de l'équilibre postural[1] et de la station debout, du guidage des mouvements par la vue ou le toucher (marche dans le noir par exemple).
+L'ataxie se manifeste principalement par des troubles de la marche, de l'équilibre postural et de la station debout, du guidage des mouvements par la vue ou le toucher (marche dans le noir par exemple).
 Elle s'observe par le phénomène de rebond, il n'y a pas de frein dans le mouvement, le sujet dépasse la cible en raison d'un freinage tardif des muscles antagonistes.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Au niveau moteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les ataxies font partie d'un ensemble plus grand : les troubles de l'équilibre.
 Les troubles de l'équilibre sont plus évidents quand le patient a les yeux fermés dans le cas d'une ataxie labyrinthique. Il est donc important de se renseigner sur ce type de troubles avant d'effectuer le bilan psychomoteur. En effet, certaines épreuves sont à éviter.
@@ -548,7 +562,9 @@
           <t>Maladies provoquant une ataxie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Syndrome de Joubert
 Ataxie cérébelleuse
@@ -610,7 +626,9 @@
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'ataxie proprioceptive peut être explorée par différents tests cliniques. On la révèle notamment par les tests :
 en orthostatisme (debout et immobile), pieds joints et yeux occlus (signe de Romberg) : le patient tangue par perte des informations visuelles lui permettant de compenser sa déficience de sensibilité proprioceptive ;
@@ -643,10 +661,12 @@
           <t>Personnalités victimes d'ataxie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'historien français Augustin Thierry (1795-1856) a commencé à souffrir d'ataxie à l'âge de 30 ans.
-Une ataxie a été diagnostiquée au chanteur français Miossec[2] en 2009.
+Une ataxie a été diagnostiquée au chanteur français Miossec en 2009.
 Le peintre français Édouard Manet a succombé à une ataxie.
 Leland Stanford, 8e gouverneur de Californie et fondateur de l'Université de Stanford aux États-Unis, a souffert d'ataxie.</t>
         </is>
